--- a/HW_0_benchmark/Benchmark.xlsx
+++ b/HW_0_benchmark/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE\Homework\HW_0_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BB9C2B-C5CC-405B-9FED-908B12D7733A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372714B-ED21-4BD4-A487-3C728D51EC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,6 +360,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,68 +423,14 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,7 +716,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -737,41 +737,41 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="1"/>
@@ -781,30 +781,30 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="21"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="1" t="s">
@@ -816,30 +816,30 @@
       <c r="C4" s="2">
         <v>1447</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="13">
         <v>0.58489999999999998</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="2">
         <v>26</v>
       </c>
       <c r="G4" s="2">
         <v>1648</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="13">
         <v>0.3664</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="3">
         <v>36</v>
       </c>
       <c r="K4" s="2">
         <v>1633</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="29">
         <v>3.5948000000000002</v>
       </c>
-      <c r="M4" s="36"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="1" t="s">
@@ -851,30 +851,30 @@
       <c r="C5" s="11">
         <v>1419</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="35">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="12">
         <v>14.8</v>
       </c>
       <c r="G5" s="12">
         <v>1439</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="35">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="12">
         <v>30</v>
       </c>
       <c r="K5" s="12">
         <v>1518.4</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="35">
         <v>2.9876999999999998</v>
       </c>
-      <c r="M5" s="22"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="4"/>
@@ -926,40 +926,40 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="15.75">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="15.75">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15.75">
       <c r="B12" s="2" t="s">
@@ -968,30 +968,30 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="21"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="1" t="s">
@@ -1003,61 +1003,61 @@
       <c r="C13" s="2">
         <v>3725</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="13">
         <v>83.663300000000007</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="2">
         <v>39</v>
       </c>
       <c r="G13" s="2">
         <v>4403</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="13">
         <v>86.408900000000003</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>16</v>
+        <v>12.6</v>
       </c>
       <c r="C14" s="2">
-        <v>3522</v>
-      </c>
-      <c r="D14" s="19">
-        <v>8.0711999999999993</v>
-      </c>
-      <c r="E14" s="21"/>
+        <v>1412</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2">
-        <v>3123</v>
-      </c>
-      <c r="H14" s="19">
-        <v>6.0503999999999998</v>
-      </c>
-      <c r="I14" s="21"/>
+        <v>1474</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.23430000000000001</v>
+      </c>
+      <c r="I14" s="14"/>
       <c r="J14" s="2">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K14" s="2">
-        <v>10714</v>
-      </c>
-      <c r="L14" s="19">
-        <v>16.077200000000001</v>
-      </c>
-      <c r="M14" s="21"/>
+        <v>1720</v>
+      </c>
+      <c r="L14" s="13">
+        <v>15.0185</v>
+      </c>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="4"/>
@@ -1105,79 +1105,96 @@
       <c r="M17" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
@@ -1194,23 +1211,6 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
